--- a/po_analysis_by_asin/B0BZQMXLZP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQMXLZP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>18</v>
@@ -468,169 +468,393 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45446</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>218</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45460</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B52" t="n">
         <v>12</v>
       </c>
     </row>
@@ -645,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,49 +891,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>137</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>236</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZQMXLZP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQMXLZP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -885,7 +886,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -991,6 +992,873 @@
       </c>
       <c r="B14" t="n">
         <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-29.78959112350789</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.68011390997718</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-30.60969324237815</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.08263424599006</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-35.88291899272289</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.4295530251608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-33.1661735158172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.0595262742677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-31.79284613188408</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.72193107229371</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-29.81833193112677</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.97134536744654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-30.13309829688218</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56.83042209524797</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-30.74331872551251</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55.62075073756303</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-34.12259104570421</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56.78847434103568</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-26.60110110399815</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57.59152668021489</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-31.16937453715015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>57.39145674041921</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-28.74734632368287</v>
+      </c>
+      <c r="D13" t="n">
+        <v>58.30528319784066</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-30.22728915196477</v>
+      </c>
+      <c r="D14" t="n">
+        <v>59.76109997065775</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-29.70489128261889</v>
+      </c>
+      <c r="D15" t="n">
+        <v>61.27191607189053</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-26.26206256426359</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60.53941025553286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-27.37205913657696</v>
+      </c>
+      <c r="D17" t="n">
+        <v>59.97675185555628</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-27.80091171381772</v>
+      </c>
+      <c r="D18" t="n">
+        <v>62.99575160415458</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-26.27200556934087</v>
+      </c>
+      <c r="D19" t="n">
+        <v>62.49482968637154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-24.45590138803792</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61.08498550352128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-24.6351863071521</v>
+      </c>
+      <c r="D21" t="n">
+        <v>62.78002480688625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-24.11595424077906</v>
+      </c>
+      <c r="D22" t="n">
+        <v>65.91559068211774</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-22.1442469582629</v>
+      </c>
+      <c r="D23" t="n">
+        <v>63.3334910206969</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-22.38547192573702</v>
+      </c>
+      <c r="D24" t="n">
+        <v>63.8954810225739</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-23.39779095752704</v>
+      </c>
+      <c r="D25" t="n">
+        <v>66.21880296473425</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-21.15312838064596</v>
+      </c>
+      <c r="D26" t="n">
+        <v>69.65608495665336</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-22.01593175148977</v>
+      </c>
+      <c r="D27" t="n">
+        <v>66.22360940223946</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-23.02234950688787</v>
+      </c>
+      <c r="D28" t="n">
+        <v>66.09684548879912</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-21.21448590051637</v>
+      </c>
+      <c r="D29" t="n">
+        <v>67.63453617766719</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-15.45712907792346</v>
+      </c>
+      <c r="D30" t="n">
+        <v>72.11421986483363</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>27</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-17.1107397297866</v>
+      </c>
+      <c r="D31" t="n">
+        <v>70.46217261784763</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-15.15895961083634</v>
+      </c>
+      <c r="D32" t="n">
+        <v>72.78698017474913</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>28</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-15.50323136520536</v>
+      </c>
+      <c r="D33" t="n">
+        <v>72.33219483437539</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>29</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-13.27969291337733</v>
+      </c>
+      <c r="D34" t="n">
+        <v>71.9125305671738</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>29</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-15.14668807640055</v>
+      </c>
+      <c r="D35" t="n">
+        <v>72.75196308841775</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>29</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-14.08107954422655</v>
+      </c>
+      <c r="D36" t="n">
+        <v>69.28190568126253</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-16.79624109244013</v>
+      </c>
+      <c r="D37" t="n">
+        <v>73.95339070302418</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-16.17583525117433</v>
+      </c>
+      <c r="D38" t="n">
+        <v>71.61970908457141</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>31</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-15.48640805852773</v>
+      </c>
+      <c r="D39" t="n">
+        <v>74.0295249105888</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-12.52010790807461</v>
+      </c>
+      <c r="D40" t="n">
+        <v>74.61605693310997</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>32</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-10.85157376333509</v>
+      </c>
+      <c r="D41" t="n">
+        <v>76.74384975342663</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-11.04331396435813</v>
+      </c>
+      <c r="D42" t="n">
+        <v>79.01247210351688</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>33</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-10.94493346998989</v>
+      </c>
+      <c r="D43" t="n">
+        <v>76.84733037723193</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>33</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-10.17647632179772</v>
+      </c>
+      <c r="D44" t="n">
+        <v>72.54017071282136</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>34</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-12.62541195948917</v>
+      </c>
+      <c r="D45" t="n">
+        <v>74.98421134912077</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>34</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-8.807793555575181</v>
+      </c>
+      <c r="D46" t="n">
+        <v>77.25446515789871</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>34</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-10.33809694247973</v>
+      </c>
+      <c r="D47" t="n">
+        <v>75.89769130327286</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>35</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-8.644224168870087</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79.45974535177487</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>35</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-9.010205491337505</v>
+      </c>
+      <c r="D49" t="n">
+        <v>81.65401817841629</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>36</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-6.410824218740843</v>
+      </c>
+      <c r="D50" t="n">
+        <v>79.1698354426543</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>36</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-7.686875639074508</v>
+      </c>
+      <c r="D51" t="n">
+        <v>80.59992458408334</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>37</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-9.906240247935699</v>
+      </c>
+      <c r="D52" t="n">
+        <v>80.07371179838127</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>37</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-6.214326949200696</v>
+      </c>
+      <c r="D53" t="n">
+        <v>78.21744166387434</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>38</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-6.862661152833891</v>
+      </c>
+      <c r="D54" t="n">
+        <v>81.48020425172669</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>38</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-7.374173965848462</v>
+      </c>
+      <c r="D55" t="n">
+        <v>81.69446317855009</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>38</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-4.396600714669391</v>
+      </c>
+      <c r="D56" t="n">
+        <v>84.7534081470879</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>39</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-6.856681941696261</v>
+      </c>
+      <c r="D57" t="n">
+        <v>78.14873647541305</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>39</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.371743170368507</v>
+      </c>
+      <c r="D58" t="n">
+        <v>86.30436774986202</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>40</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-4.635537438395793</v>
+      </c>
+      <c r="D59" t="n">
+        <v>83.08473343006045</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-3.132280279917185</v>
+      </c>
+      <c r="D60" t="n">
+        <v>82.86909776567772</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZQMXLZP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQMXLZP_po_data.xlsx
@@ -1005,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,16 +1024,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1042,12 +1032,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>-29.78959112350789</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54.68011390997718</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1056,12 +1040,6 @@
       <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>-30.60969324237815</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.08263424599006</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1070,12 +1048,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>-35.88291899272289</v>
-      </c>
-      <c r="D4" t="n">
-        <v>53.4295530251608</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1084,12 +1056,6 @@
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
-        <v>-33.1661735158172</v>
-      </c>
-      <c r="D5" t="n">
-        <v>53.0595262742677</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1098,12 +1064,6 @@
       <c r="B6" t="n">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
-        <v>-31.79284613188408</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.72193107229371</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1112,12 +1072,6 @@
       <c r="B7" t="n">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>-29.81833193112677</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.97134536744654</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1126,12 +1080,6 @@
       <c r="B8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
-        <v>-30.13309829688218</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56.83042209524797</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1140,12 +1088,6 @@
       <c r="B9" t="n">
         <v>13</v>
       </c>
-      <c r="C9" t="n">
-        <v>-30.74331872551251</v>
-      </c>
-      <c r="D9" t="n">
-        <v>55.62075073756303</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1154,12 +1096,6 @@
       <c r="B10" t="n">
         <v>14</v>
       </c>
-      <c r="C10" t="n">
-        <v>-34.12259104570421</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.78847434103568</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1168,12 +1104,6 @@
       <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="C11" t="n">
-        <v>-26.60110110399815</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57.59152668021489</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1182,12 +1112,6 @@
       <c r="B12" t="n">
         <v>15</v>
       </c>
-      <c r="C12" t="n">
-        <v>-31.16937453715015</v>
-      </c>
-      <c r="D12" t="n">
-        <v>57.39145674041921</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1196,12 +1120,6 @@
       <c r="B13" t="n">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>-28.74734632368287</v>
-      </c>
-      <c r="D13" t="n">
-        <v>58.30528319784066</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1210,12 +1128,6 @@
       <c r="B14" t="n">
         <v>16</v>
       </c>
-      <c r="C14" t="n">
-        <v>-30.22728915196477</v>
-      </c>
-      <c r="D14" t="n">
-        <v>59.76109997065775</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1224,12 +1136,6 @@
       <c r="B15" t="n">
         <v>16</v>
       </c>
-      <c r="C15" t="n">
-        <v>-29.70489128261889</v>
-      </c>
-      <c r="D15" t="n">
-        <v>61.27191607189053</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1238,12 +1144,6 @@
       <c r="B16" t="n">
         <v>17</v>
       </c>
-      <c r="C16" t="n">
-        <v>-26.26206256426359</v>
-      </c>
-      <c r="D16" t="n">
-        <v>60.53941025553286</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1252,12 +1152,6 @@
       <c r="B17" t="n">
         <v>17</v>
       </c>
-      <c r="C17" t="n">
-        <v>-27.37205913657696</v>
-      </c>
-      <c r="D17" t="n">
-        <v>59.97675185555628</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1266,12 +1160,6 @@
       <c r="B18" t="n">
         <v>18</v>
       </c>
-      <c r="C18" t="n">
-        <v>-27.80091171381772</v>
-      </c>
-      <c r="D18" t="n">
-        <v>62.99575160415458</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1280,12 +1168,6 @@
       <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>-26.27200556934087</v>
-      </c>
-      <c r="D19" t="n">
-        <v>62.49482968637154</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1294,12 +1176,6 @@
       <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>-24.45590138803792</v>
-      </c>
-      <c r="D20" t="n">
-        <v>61.08498550352128</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1308,12 +1184,6 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="n">
-        <v>-24.6351863071521</v>
-      </c>
-      <c r="D21" t="n">
-        <v>62.78002480688625</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1322,12 +1192,6 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
-        <v>-24.11595424077906</v>
-      </c>
-      <c r="D22" t="n">
-        <v>65.91559068211774</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1336,12 +1200,6 @@
       <c r="B23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>-22.1442469582629</v>
-      </c>
-      <c r="D23" t="n">
-        <v>63.3334910206969</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1350,12 +1208,6 @@
       <c r="B24" t="n">
         <v>21</v>
       </c>
-      <c r="C24" t="n">
-        <v>-22.38547192573702</v>
-      </c>
-      <c r="D24" t="n">
-        <v>63.8954810225739</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1364,12 +1216,6 @@
       <c r="B25" t="n">
         <v>21</v>
       </c>
-      <c r="C25" t="n">
-        <v>-23.39779095752704</v>
-      </c>
-      <c r="D25" t="n">
-        <v>66.21880296473425</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1378,12 +1224,6 @@
       <c r="B26" t="n">
         <v>22</v>
       </c>
-      <c r="C26" t="n">
-        <v>-21.15312838064596</v>
-      </c>
-      <c r="D26" t="n">
-        <v>69.65608495665336</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1392,12 +1232,6 @@
       <c r="B27" t="n">
         <v>22</v>
       </c>
-      <c r="C27" t="n">
-        <v>-22.01593175148977</v>
-      </c>
-      <c r="D27" t="n">
-        <v>66.22360940223946</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1406,12 +1240,6 @@
       <c r="B28" t="n">
         <v>23</v>
       </c>
-      <c r="C28" t="n">
-        <v>-23.02234950688787</v>
-      </c>
-      <c r="D28" t="n">
-        <v>66.09684548879912</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1420,12 +1248,6 @@
       <c r="B29" t="n">
         <v>23</v>
       </c>
-      <c r="C29" t="n">
-        <v>-21.21448590051637</v>
-      </c>
-      <c r="D29" t="n">
-        <v>67.63453617766719</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1434,12 +1256,6 @@
       <c r="B30" t="n">
         <v>27</v>
       </c>
-      <c r="C30" t="n">
-        <v>-15.45712907792346</v>
-      </c>
-      <c r="D30" t="n">
-        <v>72.11421986483363</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1448,12 +1264,6 @@
       <c r="B31" t="n">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
-        <v>-17.1107397297866</v>
-      </c>
-      <c r="D31" t="n">
-        <v>70.46217261784763</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1462,12 +1272,6 @@
       <c r="B32" t="n">
         <v>28</v>
       </c>
-      <c r="C32" t="n">
-        <v>-15.15895961083634</v>
-      </c>
-      <c r="D32" t="n">
-        <v>72.78698017474913</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1476,12 +1280,6 @@
       <c r="B33" t="n">
         <v>28</v>
       </c>
-      <c r="C33" t="n">
-        <v>-15.50323136520536</v>
-      </c>
-      <c r="D33" t="n">
-        <v>72.33219483437539</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1490,12 +1288,6 @@
       <c r="B34" t="n">
         <v>29</v>
       </c>
-      <c r="C34" t="n">
-        <v>-13.27969291337733</v>
-      </c>
-      <c r="D34" t="n">
-        <v>71.9125305671738</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1504,12 +1296,6 @@
       <c r="B35" t="n">
         <v>29</v>
       </c>
-      <c r="C35" t="n">
-        <v>-15.14668807640055</v>
-      </c>
-      <c r="D35" t="n">
-        <v>72.75196308841775</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1518,12 +1304,6 @@
       <c r="B36" t="n">
         <v>29</v>
       </c>
-      <c r="C36" t="n">
-        <v>-14.08107954422655</v>
-      </c>
-      <c r="D36" t="n">
-        <v>69.28190568126253</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1532,12 +1312,6 @@
       <c r="B37" t="n">
         <v>30</v>
       </c>
-      <c r="C37" t="n">
-        <v>-16.79624109244013</v>
-      </c>
-      <c r="D37" t="n">
-        <v>73.95339070302418</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1546,12 +1320,6 @@
       <c r="B38" t="n">
         <v>30</v>
       </c>
-      <c r="C38" t="n">
-        <v>-16.17583525117433</v>
-      </c>
-      <c r="D38" t="n">
-        <v>71.61970908457141</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1560,12 +1328,6 @@
       <c r="B39" t="n">
         <v>31</v>
       </c>
-      <c r="C39" t="n">
-        <v>-15.48640805852773</v>
-      </c>
-      <c r="D39" t="n">
-        <v>74.0295249105888</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1574,12 +1336,6 @@
       <c r="B40" t="n">
         <v>31</v>
       </c>
-      <c r="C40" t="n">
-        <v>-12.52010790807461</v>
-      </c>
-      <c r="D40" t="n">
-        <v>74.61605693310997</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1588,12 +1344,6 @@
       <c r="B41" t="n">
         <v>32</v>
       </c>
-      <c r="C41" t="n">
-        <v>-10.85157376333509</v>
-      </c>
-      <c r="D41" t="n">
-        <v>76.74384975342663</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1602,12 +1352,6 @@
       <c r="B42" t="n">
         <v>32</v>
       </c>
-      <c r="C42" t="n">
-        <v>-11.04331396435813</v>
-      </c>
-      <c r="D42" t="n">
-        <v>79.01247210351688</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1616,12 +1360,6 @@
       <c r="B43" t="n">
         <v>33</v>
       </c>
-      <c r="C43" t="n">
-        <v>-10.94493346998989</v>
-      </c>
-      <c r="D43" t="n">
-        <v>76.84733037723193</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1630,12 +1368,6 @@
       <c r="B44" t="n">
         <v>33</v>
       </c>
-      <c r="C44" t="n">
-        <v>-10.17647632179772</v>
-      </c>
-      <c r="D44" t="n">
-        <v>72.54017071282136</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1644,12 +1376,6 @@
       <c r="B45" t="n">
         <v>34</v>
       </c>
-      <c r="C45" t="n">
-        <v>-12.62541195948917</v>
-      </c>
-      <c r="D45" t="n">
-        <v>74.98421134912077</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1658,12 +1384,6 @@
       <c r="B46" t="n">
         <v>34</v>
       </c>
-      <c r="C46" t="n">
-        <v>-8.807793555575181</v>
-      </c>
-      <c r="D46" t="n">
-        <v>77.25446515789871</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1672,12 +1392,6 @@
       <c r="B47" t="n">
         <v>34</v>
       </c>
-      <c r="C47" t="n">
-        <v>-10.33809694247973</v>
-      </c>
-      <c r="D47" t="n">
-        <v>75.89769130327286</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1686,12 +1400,6 @@
       <c r="B48" t="n">
         <v>35</v>
       </c>
-      <c r="C48" t="n">
-        <v>-8.644224168870087</v>
-      </c>
-      <c r="D48" t="n">
-        <v>79.45974535177487</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1700,12 +1408,6 @@
       <c r="B49" t="n">
         <v>35</v>
       </c>
-      <c r="C49" t="n">
-        <v>-9.010205491337505</v>
-      </c>
-      <c r="D49" t="n">
-        <v>81.65401817841629</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1714,12 +1416,6 @@
       <c r="B50" t="n">
         <v>36</v>
       </c>
-      <c r="C50" t="n">
-        <v>-6.410824218740843</v>
-      </c>
-      <c r="D50" t="n">
-        <v>79.1698354426543</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1728,12 +1424,6 @@
       <c r="B51" t="n">
         <v>36</v>
       </c>
-      <c r="C51" t="n">
-        <v>-7.686875639074508</v>
-      </c>
-      <c r="D51" t="n">
-        <v>80.59992458408334</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1742,12 +1432,6 @@
       <c r="B52" t="n">
         <v>37</v>
       </c>
-      <c r="C52" t="n">
-        <v>-9.906240247935699</v>
-      </c>
-      <c r="D52" t="n">
-        <v>80.07371179838127</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1756,12 +1440,6 @@
       <c r="B53" t="n">
         <v>37</v>
       </c>
-      <c r="C53" t="n">
-        <v>-6.214326949200696</v>
-      </c>
-      <c r="D53" t="n">
-        <v>78.21744166387434</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1770,12 +1448,6 @@
       <c r="B54" t="n">
         <v>38</v>
       </c>
-      <c r="C54" t="n">
-        <v>-6.862661152833891</v>
-      </c>
-      <c r="D54" t="n">
-        <v>81.48020425172669</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1784,12 +1456,6 @@
       <c r="B55" t="n">
         <v>38</v>
       </c>
-      <c r="C55" t="n">
-        <v>-7.374173965848462</v>
-      </c>
-      <c r="D55" t="n">
-        <v>81.69446317855009</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1798,12 +1464,6 @@
       <c r="B56" t="n">
         <v>38</v>
       </c>
-      <c r="C56" t="n">
-        <v>-4.396600714669391</v>
-      </c>
-      <c r="D56" t="n">
-        <v>84.7534081470879</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1812,12 +1472,6 @@
       <c r="B57" t="n">
         <v>39</v>
       </c>
-      <c r="C57" t="n">
-        <v>-6.856681941696261</v>
-      </c>
-      <c r="D57" t="n">
-        <v>78.14873647541305</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1826,12 +1480,6 @@
       <c r="B58" t="n">
         <v>39</v>
       </c>
-      <c r="C58" t="n">
-        <v>-4.371743170368507</v>
-      </c>
-      <c r="D58" t="n">
-        <v>86.30436774986202</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1840,12 +1488,6 @@
       <c r="B59" t="n">
         <v>40</v>
       </c>
-      <c r="C59" t="n">
-        <v>-4.635537438395793</v>
-      </c>
-      <c r="D59" t="n">
-        <v>83.08473343006045</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1853,12 +1495,6 @@
       </c>
       <c r="B60" t="n">
         <v>40</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-3.132280279917185</v>
-      </c>
-      <c r="D60" t="n">
-        <v>82.86909776567772</v>
       </c>
     </row>
   </sheetData>
